--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV081-001 - Setup Mapping Jurnal Investasi Investasi - General Tambah Data.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV081-001 - Setup Mapping Jurnal Investasi Investasi - General Tambah Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1E07B9-A1C0-48EC-B088-29B9ACE5DB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6966E134-60BB-49E5-BEA6-458A7926790E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,10 +73,97 @@
     <t>PREPARATION</t>
   </si>
   <si>
+    <t>bni1234</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>Analisis Investasi</t>
+  </si>
+  <si>
+    <t>Setup Mapping Jurnal Inv</t>
+  </si>
+  <si>
+    <t>NO_URUT</t>
+  </si>
+  <si>
+    <t>KODE_INSTRUMEN</t>
+  </si>
+  <si>
+    <t>PORTO_ID</t>
+  </si>
+  <si>
+    <t>KEGIATAN</t>
+  </si>
+  <si>
+    <t>NAMA_KEGIATAN</t>
+  </si>
+  <si>
+    <t>PRODUK</t>
+  </si>
+  <si>
+    <t>KODE_KLASIFIKASI</t>
+  </si>
+  <si>
+    <t>FUND_ID</t>
+  </si>
+  <si>
+    <t>KODE_PORTO_REKSADANA</t>
+  </si>
+  <si>
+    <t>KODE_JURNAL</t>
+  </si>
+  <si>
+    <t>KETERANGAN</t>
+  </si>
+  <si>
+    <t>STATUS_REGISTER</t>
+  </si>
+  <si>
+    <t>KETERANGAN_REGISTER</t>
+  </si>
+  <si>
+    <t>DOCEXTRA</t>
+  </si>
+  <si>
+    <t>K01 : Penempatan</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>PRI01 : Deposito Pasar Uang</t>
+  </si>
+  <si>
+    <t>HTM : DIMILIKI HINGGA JATUH TEMPO</t>
+  </si>
+  <si>
+    <t>1 : Inhouse</t>
+  </si>
+  <si>
+    <t>R01 : Reksadana Pendapatan Tetap</t>
+  </si>
+  <si>
+    <t>KD1369</t>
+  </si>
+  <si>
+    <t>INV.SET.017</t>
+  </si>
+  <si>
+    <t>1 : Lanjutkan ke Verifikasi</t>
+  </si>
+  <si>
+    <t>DATA UNTUK DIVERIFIKASI</t>
+  </si>
+  <si>
+    <t>PU01</t>
+  </si>
+  <si>
     <t>Username : 31246;
 Password : bni1234;
 Role : 20/21 - Analis Investasi/Asisten Investasi;
-No. Urut : 1369;
+No. Urut : 2962;
 Kode Instrumen : DOCEXTRA;
 Porto ID : PU01 - Deposito On Call (DOC);
 Kegiatan : K01 - Penempatan;
@@ -89,93 +176,6 @@
 Keterangan : INV.SET.017;
 Status Register : 1 : Lanjutkan ke Verifikasi;
 Keterangan Register : DATA UNTUK DIVERIFIKASI</t>
-  </si>
-  <si>
-    <t>bni1234</t>
-  </si>
-  <si>
-    <t>ROLE</t>
-  </si>
-  <si>
-    <t>Analisis Investasi</t>
-  </si>
-  <si>
-    <t>Setup Mapping Jurnal Inv</t>
-  </si>
-  <si>
-    <t>NO_URUT</t>
-  </si>
-  <si>
-    <t>KODE_INSTRUMEN</t>
-  </si>
-  <si>
-    <t>PORTO_ID</t>
-  </si>
-  <si>
-    <t>KEGIATAN</t>
-  </si>
-  <si>
-    <t>NAMA_KEGIATAN</t>
-  </si>
-  <si>
-    <t>PRODUK</t>
-  </si>
-  <si>
-    <t>KODE_KLASIFIKASI</t>
-  </si>
-  <si>
-    <t>FUND_ID</t>
-  </si>
-  <si>
-    <t>KODE_PORTO_REKSADANA</t>
-  </si>
-  <si>
-    <t>KODE_JURNAL</t>
-  </si>
-  <si>
-    <t>KETERANGAN</t>
-  </si>
-  <si>
-    <t>STATUS_REGISTER</t>
-  </si>
-  <si>
-    <t>KETERANGAN_REGISTER</t>
-  </si>
-  <si>
-    <t>DOCEXTRA</t>
-  </si>
-  <si>
-    <t>K01 : Penempatan</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>PRI01 : Deposito Pasar Uang</t>
-  </si>
-  <si>
-    <t>HTM : DIMILIKI HINGGA JATUH TEMPO</t>
-  </si>
-  <si>
-    <t>1 : Inhouse</t>
-  </si>
-  <si>
-    <t>R01 : Reksadana Pendapatan Tetap</t>
-  </si>
-  <si>
-    <t>KD1369</t>
-  </si>
-  <si>
-    <t>INV.SET.017</t>
-  </si>
-  <si>
-    <t>1 : Lanjutkan ke Verifikasi</t>
-  </si>
-  <si>
-    <t>DATA UNTUK DIVERIFIKASI</t>
-  </si>
-  <si>
-    <t>PU01</t>
   </si>
 </sst>
 </file>
@@ -567,7 +567,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -625,7 +627,7 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
@@ -637,43 +639,43 @@
         <v>1</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="300" x14ac:dyDescent="0.25">
@@ -693,16 +695,16 @@
         <v>15</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="G2" s="4">
         <v>31246</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>11</v>
@@ -711,46 +713,46 @@
         <v>12</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2" s="4">
-        <v>1369</v>
+        <v>2962</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
